--- a/ETCrescue/H1299/H1299_Rot-rescue/12W_CC_exp/merged.xlsx
+++ b/ETCrescue/H1299/H1299_Rot-rescue/12W_CC_exp/merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ETCrescue/H1299/H1299_Rot-rescue/12W_CC_exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B313E9-D8F9-F545-8648-34F0F6DD7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B675F0-4B49-C54C-A0D7-D1FD64926CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="680" windowWidth="19160" windowHeight="14540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24640" windowHeight="14720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="133">
   <si>
     <t>Sample ID</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>NoSer+Form</t>
+  </si>
+  <si>
+    <t>NoSer</t>
   </si>
 </sst>
 </file>
@@ -527,6 +530,1156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5061800509357698E-2"/>
+                  <c:y val="-0.70963703288979951"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$80:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.39522510637565289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44481098060776364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52937781649182036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52322741416445218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53428620332531507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58214007605959217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64132442071493267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96940390733759363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47030740787613184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.538085192515804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31368476314548349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79706498916753399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$80:$G$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12834.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11750.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10205.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10010.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8847.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9498.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9441.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7542.666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-540A-9048-A6CA-8600A1BB05A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoSer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$80:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.39522510637565289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44481098060776364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52937781649182036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52322741416445218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53428620332531507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58214007605959217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64132442071493267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96940390733759363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47030740787613184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.538085192515804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31368476314548349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79706498916753399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$80:$H$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="8">
+                  <c:v>11102.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10460.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-540A-9048-A6CA-8600A1BB05A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1550597040"/>
+        <c:axId val="1660247280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1550597040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1660247280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1660247280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13100"/>
+          <c:min val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550597040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01658F2F-0EF2-892F-D9AB-426A9B312DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView topLeftCell="G26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" activeCellId="11" sqref="A16:A18 K16:L18 Q16:Q18 A21:A23 K21:L23 Q21:Q23 A26:A28 K26:L28 Q26:Q28 A31:A33 K31:L33 Q31:Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,6 +2637,19 @@
         <v>0.47004933344571509</v>
       </c>
     </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE(K16:K18)</f>
+        <v>11102.333333333334</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(Q16:Q18)</f>
+        <v>0.47030740787613184</v>
+      </c>
+    </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
@@ -1643,6 +2809,19 @@
         <v>0.54405718569519657</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(K21:K23)</f>
+        <v>10460.666666666666</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(Q21:Q23)</f>
+        <v>0.538085192515804</v>
+      </c>
+    </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
@@ -1802,6 +2981,19 @@
         <v>0.32368963205171269</v>
       </c>
     </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K26:K28)</f>
+        <v>8888</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(Q26:Q28)</f>
+        <v>0.31368476314548349</v>
+      </c>
+    </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
@@ -1961,6 +3153,19 @@
         <v>0.81950572812048061</v>
       </c>
     </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K31:K33)</f>
+        <v>9479</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(Q31:Q33)</f>
+        <v>0.79706498916753399</v>
+      </c>
+    </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
@@ -2120,6 +3325,19 @@
         <v>0.367330066427069</v>
       </c>
     </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39">
+        <f>AVERAGE(K36:K38)</f>
+        <v>12834.666666666666</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(Q36:Q38)</f>
+        <v>0.39522510637565289</v>
+      </c>
+    </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
@@ -2279,6 +3497,19 @@
         <v>0.43690426316083802</v>
       </c>
     </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(K41:K43)</f>
+        <v>11750.666666666666</v>
+      </c>
+      <c r="Q44">
+        <f>AVERAGE(Q41:Q43)</f>
+        <v>0.44481098060776364</v>
+      </c>
+    </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
@@ -2438,6 +3669,19 @@
         <v>0.50533229362495247</v>
       </c>
     </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49">
+        <f>AVERAGE(K46:K48)</f>
+        <v>10205.666666666666</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(Q46:Q48)</f>
+        <v>0.52937781649182036</v>
+      </c>
+    </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>83</v>
@@ -2597,6 +3841,19 @@
         <v>0.5095599831092652</v>
       </c>
     </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE(K51:K53)</f>
+        <v>10010.666666666666</v>
+      </c>
+      <c r="Q54">
+        <f>AVERAGE(Q51:Q53)</f>
+        <v>0.52322741416445218</v>
+      </c>
+    </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
@@ -2756,6 +4013,19 @@
         <v>0.53088773817705048</v>
       </c>
     </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <f>AVERAGE(K56:K58)</f>
+        <v>8847.6666666666661</v>
+      </c>
+      <c r="Q59">
+        <f>AVERAGE(Q56:Q58)</f>
+        <v>0.53428620332531507</v>
+      </c>
+    </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
@@ -2915,6 +4185,19 @@
         <v>0.59701904741155398</v>
       </c>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64">
+        <f>AVERAGE(K61:K63)</f>
+        <v>9498.3333333333339</v>
+      </c>
+      <c r="Q64">
+        <f>AVERAGE(Q61:Q63)</f>
+        <v>0.58214007605959217</v>
+      </c>
+    </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
@@ -3074,6 +4357,19 @@
         <v>0.60215618165852813</v>
       </c>
     </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69">
+        <f>AVERAGE(K66:K68)</f>
+        <v>9441.3333333333339</v>
+      </c>
+      <c r="Q69">
+        <f>AVERAGE(Q66:Q68)</f>
+        <v>0.64132442071493267</v>
+      </c>
+    </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>107</v>
@@ -3233,9 +4529,169 @@
         <v>0.97496926168610143</v>
       </c>
     </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE(K71:K73)</f>
+        <v>7542.666666666667</v>
+      </c>
+      <c r="Q74">
+        <f>AVERAGE(Q71:Q73)</f>
+        <v>0.96940390733759363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80">
+        <v>0.39522510637565289</v>
+      </c>
+      <c r="G80">
+        <v>12834.666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81">
+        <v>0.44481098060776364</v>
+      </c>
+      <c r="G81">
+        <v>11750.666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82">
+        <v>0.52937781649182036</v>
+      </c>
+      <c r="G82">
+        <v>10205.666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83">
+        <v>0.52322741416445218</v>
+      </c>
+      <c r="G83">
+        <v>10010.666666666666</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84">
+        <v>0.53428620332531507</v>
+      </c>
+      <c r="G84">
+        <v>8847.6666666666661</v>
+      </c>
+    </row>
+    <row r="85" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85">
+        <v>0.58214007605959217</v>
+      </c>
+      <c r="G85">
+        <v>9498.3333333333339</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86">
+        <v>0.64132442071493267</v>
+      </c>
+      <c r="G86">
+        <v>9441.3333333333339</v>
+      </c>
+    </row>
+    <row r="87" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87">
+        <v>0.96940390733759363</v>
+      </c>
+      <c r="G87">
+        <v>7542.666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88">
+        <v>0.47030740787613184</v>
+      </c>
+      <c r="H88">
+        <v>11102.333333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89">
+        <v>0.538085192515804</v>
+      </c>
+      <c r="H89">
+        <v>10460.666666666666</v>
+      </c>
+    </row>
+    <row r="90" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90">
+        <v>0.31368476314548349</v>
+      </c>
+      <c r="H90">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="91" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91">
+        <v>0.79706498916753399</v>
+      </c>
+      <c r="H91">
+        <v>9479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3243,7 +4699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5888CE92-6F08-2D4A-AEA0-477F8A718DF4}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
